--- a/Universidade_YTO.xlsx
+++ b/Universidade_YTO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HD\ESTUDOS EM GERAL GRADE 1 SEMENTRES 2025\PowerBI\5_POWER_BI_EXPERT_SENIOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC917DC-B6D5-46E8-8F70-870C4EB61DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA921879-69F8-4F36-85BE-ADCDC76D4904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1197,9 +1197,6 @@
     <t>https://i.imgur.com/j03AnWN.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/OjYqicG.jpg</t>
-  </si>
-  <si>
     <t>https://i.imgur.com/oWKul8X.jpg</t>
   </si>
   <si>
@@ -1789,6 +1786,9 @@
   </si>
   <si>
     <t>https://i.imgur.com/g2wKsJE.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9dC7Nrz.png</t>
   </si>
 </sst>
 </file>
@@ -3023,8 +3023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175:XFD175"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3085,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>384</v>
@@ -3100,7 +3100,7 @@
         <v>207</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>199</v>
@@ -3153,10 +3153,10 @@
         <v>7080</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>389</v>
+        <v>586</v>
       </c>
       <c r="E8" s="2">
         <v>3470606</v>
@@ -3168,7 +3168,7 @@
         <v>208</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I8" s="2">
         <v>9</v>
@@ -3221,10 +3221,10 @@
         <v>5971</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E9" s="2">
         <v>4675200</v>
@@ -3233,10 +3233,10 @@
         <v>15</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I9" s="2">
         <v>10</v>
@@ -3289,10 +3289,10 @@
         <v>4518</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E10" s="2">
         <v>3471486</v>
@@ -3304,7 +3304,7 @@
         <v>208</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I10" s="2">
         <v>9</v>
@@ -3357,10 +3357,10 @@
         <v>5671</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E11" s="2">
         <v>3519270</v>
@@ -3372,7 +3372,7 @@
         <v>208</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I11" s="2">
         <v>10</v>
@@ -3425,10 +3425,10 @@
         <v>5050</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E12" s="2">
         <v>4881921</v>
@@ -3440,7 +3440,7 @@
         <v>209</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I12" s="2">
         <v>5</v>
@@ -3487,16 +3487,16 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B13" s="2">
         <v>8566</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E13" s="2">
         <v>4253240</v>
@@ -3508,7 +3508,7 @@
         <v>209</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I13" s="2">
         <v>7</v>
@@ -3561,7 +3561,7 @@
         <v>3202</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>388</v>
@@ -3576,7 +3576,7 @@
         <v>208</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I14" s="2">
         <v>10</v>
@@ -3629,10 +3629,10 @@
         <v>9439</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E15" s="2">
         <v>5215520</v>
@@ -3644,7 +3644,7 @@
         <v>208</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I15" s="2">
         <v>8</v>
@@ -3697,10 +3697,10 @@
         <v>8943</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E16" s="2">
         <v>3661092</v>
@@ -3712,7 +3712,7 @@
         <v>210</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I16" s="2">
         <v>10</v>
@@ -3765,10 +3765,10 @@
         <v>8545</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E17" s="2">
         <v>4140164</v>
@@ -3780,7 +3780,7 @@
         <v>209</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I17" s="2">
         <v>7</v>
@@ -3833,10 +3833,10 @@
         <v>1853</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E18" s="2">
         <v>5074198</v>
@@ -3848,7 +3848,7 @@
         <v>208</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I18" s="2">
         <v>6</v>
@@ -3901,10 +3901,10 @@
         <v>1987</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E19" s="2">
         <v>5033089</v>
@@ -3916,7 +3916,7 @@
         <v>208</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I19" s="2">
         <v>7</v>
@@ -3969,10 +3969,10 @@
         <v>3469</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E20" s="2">
         <v>4784865</v>
@@ -3981,10 +3981,10 @@
         <v>15</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I20" s="2">
         <v>5</v>
@@ -4037,10 +4037,10 @@
         <v>3074</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E21" s="2">
         <v>4510873</v>
@@ -4052,7 +4052,7 @@
         <v>208</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I21" s="2">
         <v>9</v>
@@ -4105,10 +4105,10 @@
         <v>2907</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E22" s="2">
         <v>4142164</v>
@@ -4120,7 +4120,7 @@
         <v>208</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I22" s="2">
         <v>7</v>
@@ -4173,10 +4173,10 @@
         <v>9625</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E23" s="2">
         <v>5048081</v>
@@ -4188,7 +4188,7 @@
         <v>208</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I23" s="2">
         <v>9</v>
@@ -4241,10 +4241,10 @@
         <v>9565</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E24" s="2">
         <v>3299413</v>
@@ -4256,7 +4256,7 @@
         <v>209</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I24" s="2">
         <v>10</v>
@@ -4309,10 +4309,10 @@
         <v>3726</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E25" s="2">
         <v>5070799</v>
@@ -4324,7 +4324,7 @@
         <v>209</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I25" s="2">
         <v>8</v>
@@ -4377,10 +4377,10 @@
         <v>8147</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E26" s="2">
         <v>4198448</v>
@@ -4392,7 +4392,7 @@
         <v>208</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I26" s="2">
         <v>7</v>
@@ -4445,10 +4445,10 @@
         <v>1503</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E27" s="2">
         <v>5126560</v>
@@ -4460,7 +4460,7 @@
         <v>208</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I27" s="2">
         <v>8</v>
@@ -4513,10 +4513,10 @@
         <v>5229</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E28" s="2">
         <v>4639042</v>
@@ -4528,7 +4528,7 @@
         <v>210</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I28" s="2">
         <v>8</v>
@@ -4581,10 +4581,10 @@
         <v>1654</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E29" s="2">
         <v>4030037</v>
@@ -4596,7 +4596,7 @@
         <v>209</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I29" s="2">
         <v>10</v>
@@ -4649,10 +4649,10 @@
         <v>2463</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E30" s="2">
         <v>4338341</v>
@@ -4664,7 +4664,7 @@
         <v>208</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I30" s="2">
         <v>8</v>
@@ -4717,10 +4717,10 @@
         <v>2144</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E31" s="2">
         <v>3911620</v>
@@ -4732,7 +4732,7 @@
         <v>208</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I31" s="2">
         <v>5</v>
@@ -4785,10 +4785,10 @@
         <v>3690</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E32" s="2">
         <v>3764935</v>
@@ -4797,10 +4797,10 @@
         <v>15</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I32" s="2">
         <v>5</v>
@@ -4853,10 +4853,10 @@
         <v>6952</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E33" s="2">
         <v>3892657</v>
@@ -4868,7 +4868,7 @@
         <v>208</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I33" s="2">
         <v>8</v>
@@ -4921,10 +4921,10 @@
         <v>1396</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E34" s="2">
         <v>3352923</v>
@@ -4936,7 +4936,7 @@
         <v>208</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I34" s="2">
         <v>5</v>
@@ -4989,10 +4989,10 @@
         <v>9432</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E35" s="2">
         <v>5023228</v>
@@ -5004,7 +5004,7 @@
         <v>208</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I35" s="2">
         <v>5</v>
@@ -5057,10 +5057,10 @@
         <v>7090</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E36" s="2">
         <v>4963717</v>
@@ -5072,7 +5072,7 @@
         <v>209</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I36" s="2">
         <v>5</v>
@@ -5125,10 +5125,10 @@
         <v>7512</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E37" s="2">
         <v>3463019</v>
@@ -5140,7 +5140,7 @@
         <v>209</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I37" s="2">
         <v>6</v>
@@ -5193,10 +5193,10 @@
         <v>9115</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E38" s="2">
         <v>4065874</v>
@@ -5208,7 +5208,7 @@
         <v>208</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I38" s="2">
         <v>9</v>
@@ -5261,10 +5261,10 @@
         <v>5036</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E39" s="2">
         <v>4367656</v>
@@ -5276,7 +5276,7 @@
         <v>208</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I39" s="2">
         <v>10</v>
@@ -5329,10 +5329,10 @@
         <v>1646</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E40" s="2">
         <v>4922460</v>
@@ -5344,7 +5344,7 @@
         <v>210</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I40" s="2">
         <v>6</v>
@@ -5397,10 +5397,10 @@
         <v>3786</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E41" s="2">
         <v>3838654</v>
@@ -5412,7 +5412,7 @@
         <v>209</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I41" s="2">
         <v>10</v>
@@ -5465,10 +5465,10 @@
         <v>9494</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E42" s="2">
         <v>4314631</v>
@@ -5480,7 +5480,7 @@
         <v>208</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I42" s="2">
         <v>6</v>
@@ -5533,10 +5533,10 @@
         <v>7019</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E43" s="2">
         <v>3985807</v>
@@ -5548,7 +5548,7 @@
         <v>208</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I43" s="2">
         <v>9</v>
@@ -5601,10 +5601,10 @@
         <v>8844</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E44" s="2">
         <v>3455610</v>
@@ -5613,10 +5613,10 @@
         <v>15</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I44" s="2">
         <v>8</v>
@@ -5669,10 +5669,10 @@
         <v>8894</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E45" s="2">
         <v>4855753</v>
@@ -5684,7 +5684,7 @@
         <v>208</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I45" s="2">
         <v>6</v>
@@ -5737,10 +5737,10 @@
         <v>9316</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E46" s="2">
         <v>5173383</v>
@@ -5752,7 +5752,7 @@
         <v>208</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I46" s="2">
         <v>10</v>
@@ -5805,10 +5805,10 @@
         <v>7510</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E47" s="2">
         <v>4961267</v>
@@ -5820,7 +5820,7 @@
         <v>208</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I47" s="2">
         <v>10</v>
@@ -5873,10 +5873,10 @@
         <v>7041</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E48" s="2">
         <v>3561217</v>
@@ -5888,7 +5888,7 @@
         <v>209</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I48" s="2">
         <v>10</v>
@@ -5941,10 +5941,10 @@
         <v>6176</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E49" s="2">
         <v>5071935</v>
@@ -5956,7 +5956,7 @@
         <v>209</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I49" s="2">
         <v>9</v>
@@ -6012,7 +6012,7 @@
         <v>40</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E50" s="2">
         <v>4229001</v>
@@ -6024,7 +6024,7 @@
         <v>208</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I50" s="2">
         <v>7</v>
@@ -6077,10 +6077,10 @@
         <v>2163</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E51" s="2">
         <v>3772551</v>
@@ -6092,7 +6092,7 @@
         <v>208</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I51" s="2">
         <v>7</v>
@@ -6145,10 +6145,10 @@
         <v>5055</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E52" s="2">
         <v>3807334</v>
@@ -6160,7 +6160,7 @@
         <v>210</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I52" s="2">
         <v>10</v>
@@ -6213,10 +6213,10 @@
         <v>6333</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E53" s="2">
         <v>4309027</v>
@@ -6228,7 +6228,7 @@
         <v>209</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I53" s="2">
         <v>8</v>
@@ -6281,10 +6281,10 @@
         <v>9506</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E54" s="2">
         <v>3894389</v>
@@ -6296,7 +6296,7 @@
         <v>208</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I54" s="2">
         <v>7</v>
@@ -6349,10 +6349,10 @@
         <v>2818</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E55" s="2">
         <v>4560753</v>
@@ -6364,7 +6364,7 @@
         <v>208</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I55" s="2">
         <v>7</v>
@@ -6417,10 +6417,10 @@
         <v>9597</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E56" s="2">
         <v>4811249</v>
@@ -6429,10 +6429,10 @@
         <v>15</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I56" s="2">
         <v>9</v>
@@ -6485,10 +6485,10 @@
         <v>9174</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E57" s="2">
         <v>4647799</v>
@@ -6500,7 +6500,7 @@
         <v>208</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I57" s="2">
         <v>7</v>
@@ -6553,10 +6553,10 @@
         <v>3718</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E58" s="2">
         <v>4794670</v>
@@ -6568,7 +6568,7 @@
         <v>208</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I58" s="2">
         <v>6</v>
@@ -6621,10 +6621,10 @@
         <v>2149</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E59" s="2">
         <v>5220376</v>
@@ -6636,7 +6636,7 @@
         <v>208</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I59" s="2">
         <v>7</v>
@@ -6689,10 +6689,10 @@
         <v>7979</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E60" s="2">
         <v>4831382</v>
@@ -6704,7 +6704,7 @@
         <v>209</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I60" s="2">
         <v>8</v>
@@ -6757,10 +6757,10 @@
         <v>5570</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E61" s="2">
         <v>4137302</v>
@@ -6772,7 +6772,7 @@
         <v>209</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I61" s="2">
         <v>5</v>
@@ -6825,10 +6825,10 @@
         <v>7304</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E62" s="2">
         <v>3602781</v>
@@ -6840,7 +6840,7 @@
         <v>208</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I62" s="2">
         <v>10</v>
@@ -6893,10 +6893,10 @@
         <v>9167</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E63" s="2">
         <v>3479627</v>
@@ -6908,7 +6908,7 @@
         <v>208</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I63" s="2">
         <v>6</v>
@@ -6961,10 +6961,10 @@
         <v>3710</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E64" s="2">
         <v>4199136</v>
@@ -6976,7 +6976,7 @@
         <v>210</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I64" s="2">
         <v>9</v>
@@ -7029,10 +7029,10 @@
         <v>6704</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E65" s="2">
         <v>3828636</v>
@@ -7044,7 +7044,7 @@
         <v>209</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I65" s="2">
         <v>10</v>
@@ -7097,10 +7097,10 @@
         <v>3005</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E66" s="2">
         <v>4626281</v>
@@ -7112,7 +7112,7 @@
         <v>208</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I66" s="2">
         <v>10</v>
@@ -7165,10 +7165,10 @@
         <v>4975</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E67" s="2">
         <v>3974181</v>
@@ -7180,7 +7180,7 @@
         <v>208</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I67" s="2">
         <v>9</v>
@@ -7233,10 +7233,10 @@
         <v>9173</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E68" s="2">
         <v>3308403</v>
@@ -7245,10 +7245,10 @@
         <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I68" s="2">
         <v>6</v>
@@ -7301,10 +7301,10 @@
         <v>6318</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E69" s="2">
         <v>3686178</v>
@@ -7316,7 +7316,7 @@
         <v>208</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I69" s="2">
         <v>8</v>
@@ -7369,10 +7369,10 @@
         <v>8762</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E70" s="2">
         <v>4548296</v>
@@ -7384,7 +7384,7 @@
         <v>208</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I70" s="2">
         <v>10</v>
@@ -7437,10 +7437,10 @@
         <v>8957</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E71" s="2">
         <v>4964260</v>
@@ -7452,7 +7452,7 @@
         <v>208</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I71" s="2">
         <v>8</v>
@@ -7505,10 +7505,10 @@
         <v>7692</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E72" s="2">
         <v>4431586</v>
@@ -7520,7 +7520,7 @@
         <v>209</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I72" s="2">
         <v>9</v>
@@ -7573,10 +7573,10 @@
         <v>4464</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E73" s="2">
         <v>3570910</v>
@@ -7588,7 +7588,7 @@
         <v>209</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I73" s="2">
         <v>10</v>
@@ -7641,10 +7641,10 @@
         <v>6057</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E74" s="2">
         <v>3317433</v>
@@ -7656,7 +7656,7 @@
         <v>208</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I74" s="2">
         <v>8</v>
@@ -7709,10 +7709,10 @@
         <v>5938</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E75" s="2">
         <v>4146417</v>
@@ -7724,7 +7724,7 @@
         <v>208</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I75" s="2">
         <v>9</v>
@@ -7777,10 +7777,10 @@
         <v>3305</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E76" s="2">
         <v>3776182</v>
@@ -7792,7 +7792,7 @@
         <v>210</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I76" s="2">
         <v>10</v>
@@ -7845,10 +7845,10 @@
         <v>1952</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E77" s="2">
         <v>3677619</v>
@@ -7860,7 +7860,7 @@
         <v>209</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I77" s="2">
         <v>8</v>
@@ -7913,10 +7913,10 @@
         <v>6761</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E78" s="2">
         <v>5135277</v>
@@ -7928,7 +7928,7 @@
         <v>208</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I78" s="2">
         <v>6</v>
@@ -7981,10 +7981,10 @@
         <v>1444</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E79" s="2">
         <v>4411810</v>
@@ -7996,7 +7996,7 @@
         <v>208</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I79" s="2">
         <v>10</v>
@@ -8049,10 +8049,10 @@
         <v>9783</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E80" s="2">
         <v>4020450</v>
@@ -8061,10 +8061,10 @@
         <v>15</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I80" s="2">
         <v>6</v>
@@ -8117,7 +8117,7 @@
         <v>2913</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="2">
@@ -8130,7 +8130,7 @@
         <v>208</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I81" s="2">
         <v>10</v>
@@ -8183,7 +8183,7 @@
         <v>8108</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="2">
@@ -8196,7 +8196,7 @@
         <v>208</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I82" s="2">
         <v>5</v>
@@ -8249,7 +8249,7 @@
         <v>6746</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="2">
@@ -8262,7 +8262,7 @@
         <v>208</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I83" s="2">
         <v>6</v>
@@ -8315,7 +8315,7 @@
         <v>5664</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="2">
@@ -8328,7 +8328,7 @@
         <v>209</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I84" s="2">
         <v>9</v>
@@ -8381,7 +8381,7 @@
         <v>5336</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="2">
@@ -8394,7 +8394,7 @@
         <v>209</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I85" s="2">
         <v>7</v>
@@ -8447,10 +8447,10 @@
         <v>7031</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E86" s="2">
         <v>4924371</v>
@@ -8462,7 +8462,7 @@
         <v>208</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I86" s="2">
         <v>5</v>
@@ -8515,7 +8515,7 @@
         <v>2043</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="2">
@@ -8528,7 +8528,7 @@
         <v>208</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I87" s="2">
         <v>7</v>
@@ -8581,10 +8581,10 @@
         <v>1644</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E88" s="2">
         <v>4599037</v>
@@ -8596,7 +8596,7 @@
         <v>210</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I88" s="2">
         <v>5</v>
@@ -8649,7 +8649,7 @@
         <v>4199</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="2">
@@ -8662,7 +8662,7 @@
         <v>209</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I89" s="2">
         <v>7</v>
@@ -8718,7 +8718,7 @@
         <v>8</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E90" s="2">
         <v>5027473</v>
@@ -8730,7 +8730,7 @@
         <v>208</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I90" s="2">
         <v>9</v>
@@ -8783,7 +8783,7 @@
         <v>8506</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="2">
@@ -8796,7 +8796,7 @@
         <v>208</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I91" s="2">
         <v>9</v>
@@ -8849,7 +8849,7 @@
         <v>3653</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="2">
@@ -8859,10 +8859,10 @@
         <v>15</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I92" s="2">
         <v>6</v>
@@ -8915,10 +8915,10 @@
         <v>5540</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E93" s="2">
         <v>4124916</v>
@@ -8930,7 +8930,7 @@
         <v>208</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I93" s="2">
         <v>5</v>
@@ -8983,7 +8983,7 @@
         <v>1869</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="2">
@@ -8996,7 +8996,7 @@
         <v>208</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I94" s="2">
         <v>6</v>
@@ -9049,7 +9049,7 @@
         <v>3223</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="2">
@@ -9062,7 +9062,7 @@
         <v>208</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I95" s="2">
         <v>7</v>
@@ -9115,10 +9115,10 @@
         <v>1741</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E96" s="2">
         <v>4034010</v>
@@ -9130,7 +9130,7 @@
         <v>209</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I96" s="2">
         <v>6</v>
@@ -9183,10 +9183,10 @@
         <v>8819</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E97" s="2">
         <v>3637730</v>
@@ -9198,7 +9198,7 @@
         <v>209</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I97" s="2">
         <v>7</v>
@@ -9251,10 +9251,10 @@
         <v>2431</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E98" s="2">
         <v>4500949</v>
@@ -9266,7 +9266,7 @@
         <v>208</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I98" s="2">
         <v>5</v>
@@ -9319,7 +9319,7 @@
         <v>6058</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="2">
@@ -9332,7 +9332,7 @@
         <v>208</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I99" s="2">
         <v>6</v>
@@ -9385,7 +9385,7 @@
         <v>6374</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="2">
@@ -9398,7 +9398,7 @@
         <v>210</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I100" s="2">
         <v>5</v>
@@ -9451,7 +9451,7 @@
         <v>5431</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="2">
@@ -9464,7 +9464,7 @@
         <v>209</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I101" s="2">
         <v>7</v>
@@ -9517,7 +9517,7 @@
         <v>5963</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="2">
@@ -9530,7 +9530,7 @@
         <v>208</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I102" s="2">
         <v>9</v>
@@ -9583,7 +9583,7 @@
         <v>6591</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="2">
@@ -9596,7 +9596,7 @@
         <v>208</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I103" s="2">
         <v>5</v>
@@ -9649,7 +9649,7 @@
         <v>4508</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="2">
@@ -9662,7 +9662,7 @@
         <v>208</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I104" s="2">
         <v>10</v>
@@ -9715,7 +9715,7 @@
         <v>9162</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="2">
@@ -9728,7 +9728,7 @@
         <v>208</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I105" s="2">
         <v>5</v>
@@ -9781,7 +9781,7 @@
         <v>5502</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="2">
@@ -9794,7 +9794,7 @@
         <v>209</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I106" s="2">
         <v>6</v>
@@ -9847,7 +9847,7 @@
         <v>3994</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="2">
@@ -9860,7 +9860,7 @@
         <v>208</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I107" s="2">
         <v>6</v>
@@ -9913,7 +9913,7 @@
         <v>8153</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="2">
@@ -9926,7 +9926,7 @@
         <v>209</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I108" s="2">
         <v>5</v>
@@ -9979,7 +9979,7 @@
         <v>6037</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="2">
@@ -9992,7 +9992,7 @@
         <v>208</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I109" s="2">
         <v>7</v>
@@ -10045,7 +10045,7 @@
         <v>8528</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="2">
@@ -10058,7 +10058,7 @@
         <v>208</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I110" s="2">
         <v>7</v>
@@ -10111,7 +10111,7 @@
         <v>2860</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="2">
@@ -10121,10 +10121,10 @@
         <v>15</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I111" s="2">
         <v>8</v>
@@ -10177,7 +10177,7 @@
         <v>3579</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="2">
@@ -10190,7 +10190,7 @@
         <v>208</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I112" s="2">
         <v>6</v>
@@ -10243,7 +10243,7 @@
         <v>8481</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="2">
@@ -10256,7 +10256,7 @@
         <v>208</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I113" s="2">
         <v>8</v>
@@ -10309,7 +10309,7 @@
         <v>5406</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="2">
@@ -10322,7 +10322,7 @@
         <v>208</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I114" s="2">
         <v>5</v>
@@ -10375,7 +10375,7 @@
         <v>2411</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="2">
@@ -10388,7 +10388,7 @@
         <v>210</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I115" s="2">
         <v>8</v>
@@ -10441,7 +10441,7 @@
         <v>3666</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="2">
@@ -10451,10 +10451,10 @@
         <v>15</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I116" s="2">
         <v>5</v>
@@ -10507,7 +10507,7 @@
         <v>4086</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="2">
@@ -10520,7 +10520,7 @@
         <v>209</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I117" s="2">
         <v>8</v>
@@ -10573,7 +10573,7 @@
         <v>1239</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="2">
@@ -10586,7 +10586,7 @@
         <v>208</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I118" s="2">
         <v>6</v>
@@ -10639,7 +10639,7 @@
         <v>1752</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="2">
@@ -10652,7 +10652,7 @@
         <v>208</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I119" s="2">
         <v>6</v>
@@ -10705,7 +10705,7 @@
         <v>2396</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="2">
@@ -10718,7 +10718,7 @@
         <v>210</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I120" s="2">
         <v>5</v>
@@ -10771,7 +10771,7 @@
         <v>6987</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="2">
@@ -10784,7 +10784,7 @@
         <v>209</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I121" s="2">
         <v>10</v>
@@ -10837,7 +10837,7 @@
         <v>1548</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="2">
@@ -10850,7 +10850,7 @@
         <v>208</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I122" s="2">
         <v>9</v>
@@ -10903,7 +10903,7 @@
         <v>8389</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="2">
@@ -10916,7 +10916,7 @@
         <v>209</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I123" s="2">
         <v>9</v>
@@ -10969,7 +10969,7 @@
         <v>9331</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="2">
@@ -10982,7 +10982,7 @@
         <v>208</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I124" s="2">
         <v>10</v>
@@ -11035,7 +11035,7 @@
         <v>6604</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="2">
@@ -11048,7 +11048,7 @@
         <v>208</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I125" s="2">
         <v>10</v>
@@ -11101,7 +11101,7 @@
         <v>3886</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="2">
@@ -11114,7 +11114,7 @@
         <v>210</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I126" s="2">
         <v>10</v>
@@ -11167,7 +11167,7 @@
         <v>6690</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="2">
@@ -11180,7 +11180,7 @@
         <v>209</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I127" s="2">
         <v>6</v>
@@ -11233,7 +11233,7 @@
         <v>5865</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="2">
@@ -11246,7 +11246,7 @@
         <v>208</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I128" s="2">
         <v>9</v>
@@ -11299,7 +11299,7 @@
         <v>3947</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="2">
@@ -11312,7 +11312,7 @@
         <v>208</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I129" s="2">
         <v>6</v>
@@ -11365,7 +11365,7 @@
         <v>2950</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="2">
@@ -11378,7 +11378,7 @@
         <v>209</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I130" s="2">
         <v>9</v>
@@ -11431,7 +11431,7 @@
         <v>5965</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="2">
@@ -11444,7 +11444,7 @@
         <v>208</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I131" s="2">
         <v>6</v>
@@ -11497,7 +11497,7 @@
         <v>7557</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="2">
@@ -11510,7 +11510,7 @@
         <v>209</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I132" s="2">
         <v>9</v>
@@ -11563,7 +11563,7 @@
         <v>1411</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="2">
@@ -11576,7 +11576,7 @@
         <v>208</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I133" s="2">
         <v>7</v>
@@ -11629,7 +11629,7 @@
         <v>5621</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="2">
@@ -11642,7 +11642,7 @@
         <v>209</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I134" s="2">
         <v>6</v>
@@ -11695,7 +11695,7 @@
         <v>8960</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="2">
@@ -11708,7 +11708,7 @@
         <v>209</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I135" s="2">
         <v>6</v>
@@ -11761,7 +11761,7 @@
         <v>9833</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="2">
@@ -11774,7 +11774,7 @@
         <v>208</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I136" s="2">
         <v>8</v>
@@ -11827,7 +11827,7 @@
         <v>5147</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="2">
@@ -11840,7 +11840,7 @@
         <v>208</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I137" s="2">
         <v>5</v>
@@ -11893,7 +11893,7 @@
         <v>9816</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="2">
@@ -11906,7 +11906,7 @@
         <v>210</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I138" s="2">
         <v>10</v>
@@ -11959,7 +11959,7 @@
         <v>2185</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="2">
@@ -11972,7 +11972,7 @@
         <v>209</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I139" s="2">
         <v>8</v>
@@ -12025,7 +12025,7 @@
         <v>1846</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="2">
@@ -12038,7 +12038,7 @@
         <v>208</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I140" s="2">
         <v>8</v>
@@ -12091,7 +12091,7 @@
         <v>8310</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="2">
@@ -12104,7 +12104,7 @@
         <v>208</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I141" s="2">
         <v>8</v>
@@ -12157,7 +12157,7 @@
         <v>5912</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="2">
@@ -12167,10 +12167,10 @@
         <v>15</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I142" s="2">
         <v>7</v>
@@ -12223,7 +12223,7 @@
         <v>5423</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="2">
@@ -12236,7 +12236,7 @@
         <v>208</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I143" s="2">
         <v>8</v>
@@ -12289,7 +12289,7 @@
         <v>2529</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="2">
@@ -12302,7 +12302,7 @@
         <v>208</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I144" s="2">
         <v>5</v>
@@ -12355,7 +12355,7 @@
         <v>5800</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="2">
@@ -12368,7 +12368,7 @@
         <v>208</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I145" s="2">
         <v>5</v>
@@ -12421,7 +12421,7 @@
         <v>5665</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="2">
@@ -12434,7 +12434,7 @@
         <v>208</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I146" s="2">
         <v>6</v>
@@ -12487,7 +12487,7 @@
         <v>1750</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="2">
@@ -12500,7 +12500,7 @@
         <v>208</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I147" s="2">
         <v>5</v>
@@ -12553,7 +12553,7 @@
         <v>3275</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="2">
@@ -12566,7 +12566,7 @@
         <v>208</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I148" s="2">
         <v>10</v>
@@ -12619,7 +12619,7 @@
         <v>7596</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="2">
@@ -12632,7 +12632,7 @@
         <v>209</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I149" s="2">
         <v>8</v>
@@ -12685,7 +12685,7 @@
         <v>8632</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="2">
@@ -12698,7 +12698,7 @@
         <v>209</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I150" s="2">
         <v>5</v>
@@ -12751,7 +12751,7 @@
         <v>9566</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="2">
@@ -12764,7 +12764,7 @@
         <v>209</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I151" s="2">
         <v>10</v>
@@ -12817,7 +12817,7 @@
         <v>2906</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="2">
@@ -12830,7 +12830,7 @@
         <v>209</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I152" s="2">
         <v>5</v>
@@ -12883,7 +12883,7 @@
         <v>1858</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="2">
@@ -12896,7 +12896,7 @@
         <v>209</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I153" s="2">
         <v>8</v>
@@ -12949,7 +12949,7 @@
         <v>8671</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="2">
@@ -12962,7 +12962,7 @@
         <v>209</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I154" s="2">
         <v>10</v>
@@ -13015,7 +13015,7 @@
         <v>9265</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="2">
@@ -13025,10 +13025,10 @@
         <v>15</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I155" s="2">
         <v>8</v>
@@ -13081,7 +13081,7 @@
         <v>5445</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="2">
@@ -13094,7 +13094,7 @@
         <v>209</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I156" s="2">
         <v>6</v>
@@ -13147,7 +13147,7 @@
         <v>1649</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="2">
@@ -13157,10 +13157,10 @@
         <v>15</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I157" s="2">
         <v>10</v>
@@ -13213,7 +13213,7 @@
         <v>2201</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="2">
@@ -13226,7 +13226,7 @@
         <v>209</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I158" s="2">
         <v>6</v>
@@ -13279,7 +13279,7 @@
         <v>6611</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="2">
@@ -13292,7 +13292,7 @@
         <v>209</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I159" s="2">
         <v>6</v>
@@ -13345,7 +13345,7 @@
         <v>8033</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="2">
@@ -13358,7 +13358,7 @@
         <v>209</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I160" s="2">
         <v>9</v>
@@ -13411,7 +13411,7 @@
         <v>7625</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="2">
@@ -13424,7 +13424,7 @@
         <v>209</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I161" s="2">
         <v>6</v>
@@ -13477,7 +13477,7 @@
         <v>4841</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="2">
@@ -13490,7 +13490,7 @@
         <v>209</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I162" s="2">
         <v>6</v>
@@ -13543,7 +13543,7 @@
         <v>2313</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="2">
@@ -13556,7 +13556,7 @@
         <v>209</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I163" s="2">
         <v>7</v>
@@ -13609,7 +13609,7 @@
         <v>8909</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="2">
@@ -13622,7 +13622,7 @@
         <v>208</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I164" s="2">
         <v>8</v>
@@ -13675,10 +13675,10 @@
         <v>3844</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E165" s="2">
         <v>3818326</v>
@@ -13690,7 +13690,7 @@
         <v>208</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I165" s="2">
         <v>6</v>
@@ -13743,7 +13743,7 @@
         <v>4861</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="2">
@@ -13756,7 +13756,7 @@
         <v>210</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I166" s="2">
         <v>5</v>
@@ -13809,7 +13809,7 @@
         <v>8086</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="2">
@@ -13822,7 +13822,7 @@
         <v>208</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I167" s="2">
         <v>9</v>
@@ -13875,7 +13875,7 @@
         <v>1961</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="2">
@@ -13888,7 +13888,7 @@
         <v>208</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I168" s="2">
         <v>9</v>
@@ -13941,7 +13941,7 @@
         <v>3479</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="2">
@@ -13954,7 +13954,7 @@
         <v>208</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I169" s="2">
         <v>8</v>
@@ -14007,7 +14007,7 @@
         <v>9812</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="2">
@@ -14020,7 +14020,7 @@
         <v>208</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I170" s="2">
         <v>10</v>
@@ -14073,7 +14073,7 @@
         <v>6763</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="2">
@@ -14086,7 +14086,7 @@
         <v>208</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I171" s="2">
         <v>8</v>
@@ -14139,7 +14139,7 @@
         <v>3309</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="2">
@@ -14152,7 +14152,7 @@
         <v>209</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I172" s="2">
         <v>8</v>
@@ -14205,7 +14205,7 @@
         <v>4617</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="2">
@@ -14218,7 +14218,7 @@
         <v>209</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I173" s="2">
         <v>6</v>
@@ -14271,7 +14271,7 @@
         <v>2975</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="2">
@@ -14284,7 +14284,7 @@
         <v>209</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I174" s="2">
         <v>8</v>
